--- a/DataBase/Datas/Quests.xlsx
+++ b/DataBase/Datas/Quests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A88FB-9EA9-462C-AB8A-282BF3498F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B65BA4-99CE-4619-B3D9-9BC6FB915364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -91,22 +91,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>打造 1 次装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>打怪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>打造装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>reward</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -119,7 +107,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提升 10 级</t>
+    <t>击杀 5 个怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀 10 个怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quests.ERewardType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀 15 个怪物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -223,6 +239,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,9 +540,10 @@
     <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,11 +559,14 @@
       <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -551,16 +577,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,9 +597,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -586,11 +616,14 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>5001</v>
@@ -599,154 +632,332 @@
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>5002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>5003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>5004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>5005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>5007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>5008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
+        <v>5010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>5011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <v>5012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>5014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="3">
+        <v>5015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="3">
+        <v>5016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataBase/Datas/Quests.xlsx
+++ b/DataBase/Datas/Quests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B65BA4-99CE-4619-B3D9-9BC6FB915364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F6DDB7-199A-48E2-BB1A-5F74CD56297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Quests.ERewardType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,6 +133,246 @@
   <si>
     <t>击杀 15 个怪物</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀 16 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 17 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 18 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 19 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 20 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 21 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 22 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 23 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 24 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 25 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 26 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 27 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 28 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 29 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 30 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 31 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 32 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 33 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 34 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 35 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 36 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 37 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 38 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 39 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 40 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 41 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 42 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 43 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 44 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 45 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 46 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 47 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 48 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 49 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 50 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 51 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 52 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 53 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 54 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 55 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 56 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 57 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 58 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 59 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 60 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 61 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 62 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 63 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 64 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 65 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 66 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 67 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 68 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 69 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 70 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 71 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 72 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 73 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 74 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 75 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 76 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 77 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 78 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 79 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 80 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 81 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 82 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 83 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 84 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 85 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 86 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 87 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 88 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 89 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 90 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 91 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 92 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 93 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 94 个怪物</t>
+  </si>
+  <si>
+    <t>击杀 95 个怪物</t>
   </si>
 </sst>
 </file>
@@ -527,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -617,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
@@ -638,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3">
         <v>100</v>
@@ -659,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3">
         <v>100</v>
@@ -680,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3">
         <v>100</v>
@@ -692,7 +928,7 @@
         <v>5004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -701,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -722,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -743,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -764,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3">
         <v>100</v>
@@ -776,7 +1012,7 @@
         <v>5008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
@@ -785,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -806,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3">
         <v>100</v>
@@ -827,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -848,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -860,7 +1096,7 @@
         <v>5012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -869,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="3">
         <v>100</v>
@@ -890,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -911,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
@@ -932,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="3">
         <v>100</v>
@@ -944,7 +1180,7 @@
         <v>5016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -953,10 +1189,1690 @@
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>5017</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>5018</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>5019</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>5020</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>5021</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3">
+        <v>21</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>5023</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3">
+        <v>22</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>5024</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3">
+        <v>23</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>5025</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>5026</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>5027</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3">
+        <v>26</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>5028</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="3">
+        <v>27</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>5029</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>5030</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3">
+        <v>29</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>5031</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3">
+        <v>30</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>5032</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="3">
+        <v>31</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>5033</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3">
+        <v>32</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>5034</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="3">
+        <v>33</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>5035</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3">
+        <v>34</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
+        <v>5036</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3">
+        <v>35</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>5037</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>5038</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3">
+        <v>37</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>5039</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3">
+        <v>38</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>5040</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3">
+        <v>39</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>5041</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3">
+        <v>40</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>5042</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3">
+        <v>41</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
+        <v>5043</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3">
+        <v>42</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <v>5044</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3">
+        <v>43</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
+        <v>5045</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3">
+        <v>5046</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>5047</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3">
+        <v>46</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>5048</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3">
+        <v>47</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>5049</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="3">
+        <v>48</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3">
+        <v>5050</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3">
+        <v>49</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>5051</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="3">
+        <v>50</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3">
+        <v>5052</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3">
+        <v>51</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3">
+        <v>5053</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3">
+        <v>52</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
+        <v>5054</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3">
+        <v>53</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3">
+        <v>5055</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3">
+        <v>54</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3">
+        <v>5056</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="3">
+        <v>55</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3">
+        <v>5057</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="3">
+        <v>56</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3">
+        <v>5058</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="3">
+        <v>57</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3">
+        <v>5059</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="3">
+        <v>58</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3">
+        <v>5060</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3">
+        <v>59</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3">
+        <v>5061</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="3">
+        <v>60</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3">
+        <v>5062</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="3">
+        <v>61</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3">
+        <v>5063</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="3">
+        <v>62</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3">
+        <v>5064</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="3">
+        <v>63</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3">
+        <v>5065</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="3">
+        <v>64</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3">
+        <v>5066</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="3">
+        <v>65</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3">
+        <v>5067</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="3">
+        <v>66</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3">
+        <v>5068</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="3">
+        <v>67</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3">
+        <v>5069</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="3">
+        <v>68</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3">
+        <v>5070</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="3">
+        <v>69</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3">
+        <v>5071</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="3">
+        <v>70</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3">
+        <v>5072</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="3">
+        <v>71</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3">
+        <v>5073</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="3">
+        <v>72</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3">
+        <v>5074</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3">
+        <v>73</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3">
+        <v>5075</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="3">
+        <v>74</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3">
+        <v>5076</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="3">
+        <v>75</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3">
+        <v>5077</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="3">
+        <v>76</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3">
+        <v>5078</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="3">
+        <v>77</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3">
+        <v>5079</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="3">
+        <v>78</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3">
+        <v>5080</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="3">
+        <v>79</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3">
+        <v>5081</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="3">
+        <v>80</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3">
+        <v>5082</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="3">
+        <v>81</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3">
+        <v>5083</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="3">
+        <v>82</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3">
+        <v>5084</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="3">
+        <v>83</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3">
+        <v>5085</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="3">
+        <v>84</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3">
+        <v>5086</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3">
+        <v>85</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3">
+        <v>5087</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="3">
+        <v>86</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G91" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3">
+        <v>5088</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="3">
+        <v>87</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3">
+        <v>5089</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="3">
+        <v>88</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3">
+        <v>5090</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="3">
+        <v>89</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3">
+        <v>5091</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="3">
+        <v>90</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3">
+        <v>5092</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="3">
+        <v>91</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3">
+        <v>5093</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="3">
+        <v>92</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3">
+        <v>5094</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="3">
+        <v>93</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3">
+        <v>5095</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="3">
+        <v>94</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3">
+        <v>5096</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="3">
+        <v>95</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="3">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
